--- a/file/downloadExcel/groups.xlsx
+++ b/file/downloadExcel/groups.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -27,19 +27,13 @@
     <t>Faculty</t>
   </si>
   <si>
-    <t>1</t>
+    <t>37359a7a-4d4a-416e-ab51-ab1a0347f55a</t>
   </si>
   <si>
     <t>BR-12</t>
   </si>
   <si>
     <t>Accounting</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>BR-11</t>
   </si>
 </sst>
 </file>
@@ -498,15 +492,9 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1"/>
